--- a/DB Table/DB Table.xlsx
+++ b/DB Table/DB Table.xlsx
@@ -17,14 +17,14 @@
   <definedNames>
     <definedName name="BinLookup">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'경매 DB Table'!#REF!</definedName>
-    <definedName name="SKULookup">InventoryTable[day]</definedName>
+    <definedName name="SKULookup">InventoryTable[시간]</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>열1</t>
   </si>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>day</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>cost</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -87,101 +79,162 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>building</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당 건물 분류(후생관, 어문관, 기숙사)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>배식 시간</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당 이름</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"재료 1, 재료 2, 재료 3, …"  </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuList.building</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuList.day</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuList.caf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuList.time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuList.cost</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuList.content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2": 어문관</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"11": 조식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12": 컵밥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"13": 한식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"14": 일품</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15": 석식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>caf 데이터로 구분(수신 불필요)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10:30 ~ 11:30"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"11:30 ~ 18:30"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"11:30 ~ 13:40"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"17:30 ~ 18:30"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"21": 일품</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1": 후생관</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3": 기숙사</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"31": 조식(한식)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"32": 중식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"33": 석식(한식)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"08:00 ~ 09:30"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>"12:00 ~ 14:00"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>building</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>식당 건물 분류(후생관, 어문관, 기숙사)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>요일</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>배식 시간</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Dorm": 기숙사</t>
-  </si>
-  <si>
-    <t>"Foo": 후생관,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MON: 1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUN: 7</t>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Uh": 어문관</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>식당 이름</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"재료 1, 재료 2, 재료 3, …"  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"한식"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"양식"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{building:"Foo", day:"1", caf:"한식", time:"12:00 ~ 14:00", cost: "1200", content:"돈까스, 스프, 김치, 요구르트"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuList.building</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuList.day</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuList.caf</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuList.time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuList.cost</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuList.content</t>
+    <t>"17:30 ~ 19:00"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10:30 ~ 16:30"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>열2</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{building:"Foo", day:"1", caf:"11", time:"12:00 ~ 14:00", cost: "1200", content:"돈까스, 스프, 김치, 요구르트"}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,6 +499,9 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,6 +683,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -638,21 +709,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="3" tint="0.14996795556505021"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <name val="맑은 고딕"/>
         <scheme val="none"/>
       </font>
@@ -767,15 +823,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InventoryTable" displayName="InventoryTable" ref="B3:L11" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
-  <sortState ref="B5:I14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InventoryTable" displayName="InventoryTable" ref="B3:L15" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+  <sortState ref="B5:J14">
     <sortCondition ref="F2:F12"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="11" name="building" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="1" name="day" totalsRowLabel="Totals" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="6" name="caf" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" name="time" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" name="caf" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="1" name="시간" totalsRowLabel="Totals" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="열2" dataDxfId="15" totalsRowDxfId="14"/>
     <tableColumn id="4" name="cost" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="12" name="content" dataDxfId="11" totalsRowDxfId="10"/>
     <tableColumn id="5" name="열7" dataDxfId="9" totalsRowDxfId="8"/>
@@ -1024,10 +1080,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1051,43 +1107,43 @@
     <row r="1" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
@@ -1106,24 +1162,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1132,24 +1186,22 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>1200</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1158,15 +1210,15 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1178,14 +1230,16 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1196,10 +1250,14 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1210,10 +1268,14 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
@@ -1223,11 +1285,15 @@
       <c r="K9" s="4"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
@@ -1237,86 +1303,156 @@
       <c r="K10" s="4"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="18" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B4:L5 B9:L11 B6:B8 D6:L8 C6:C7">
+  <conditionalFormatting sqref="D6:D7 B4:B15 C6:C8 E4:L15 C5:D5 C4 C9:D15">
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>"If(blnBinNo=""True"")"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K11">
+  <conditionalFormatting sqref="K4:K15">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -1351,7 +1487,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K4:K11</xm:sqref>
+          <xm:sqref>K4:K15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="28" id="{AC6CABC8-B392-410F-BF01-FBE3A7AF244A}">
@@ -1370,7 +1506,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L4:L11</xm:sqref>
+          <xm:sqref>L4:L15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/DB Table/DB Table.xlsx
+++ b/DB Table/DB Table.xlsx
@@ -24,25 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>열1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>선택항목</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>초기 필수항목</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -51,9 +37,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>열7</t>
-  </si>
-  <si>
     <t>열8</t>
   </si>
   <si>
@@ -63,10 +46,6 @@
     <t>열10</t>
   </si>
   <si>
-    <t>caf</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>cost</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -91,10 +70,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>배식 시간</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>가격</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -227,14 +202,43 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>열2</t>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{building:"Foo", day:"1", caf:"11", time:"12:00 ~ 14:00", cost: "1200", content:"돈까스, 스프, 김치, 요구르트"}</t>
+    <t>mon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{building:"1", day:"1", type:"11", time:"12:00 ~ 14:00", cost: "1200", content:"돈까스, 스프, 김치, 요구르트", mon: "3", day: "1"}]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +250,7 @@
     <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="3" tint="0.14996795556505021"/>
@@ -328,14 +332,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -546,12 +542,6 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -652,52 +642,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -715,6 +659,58 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="3" tint="0.14996795556505021"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -775,6 +771,12 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -823,22 +825,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InventoryTable" displayName="InventoryTable" ref="B3:L15" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InventoryTable" displayName="InventoryTable" ref="B3:L15" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <sortState ref="B5:J14">
-    <sortCondition ref="F2:F12"/>
+    <sortCondition ref="E2:E12"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="11" name="building" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="6" name="caf" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="1" name="시간" totalsRowLabel="Totals" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" name="열2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="cost" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="12" name="content" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="열7" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" name="열8" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" name="열9" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="열1" dataDxfId="3"/>
-    <tableColumn id="9" name="열10" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="building" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" name="type" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="1" name="시간" totalsRowLabel="Totals" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" name="cost" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="12" name="content" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="mon" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="day" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="8" name="열8" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="7" name="열9" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="10" name="열1" dataDxfId="2"/>
+    <tableColumn id="9" name="열10" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Warehouse Inventory" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1083,7 +1085,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1092,8 +1094,8 @@
     <col min="2" max="2" width="47.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="23.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="69.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="40.375" style="1" customWidth="1"/>
@@ -1108,16 +1110,14 @@
     <row r="2" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="H2" s="11"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -1125,61 +1125,65 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1188,22 +1192,26 @@
     <row r="5" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2">
         <v>1200</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1212,18 +1220,22 @@
     <row r="6" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1232,18 +1244,22 @@
     <row r="7" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1253,15 +1269,19 @@
       <c r="A8" s="15"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1271,13 +1291,13 @@
       <c r="A9" s="15"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1289,13 +1309,13 @@
       <c r="A10" s="15"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1307,13 +1327,13 @@
       <c r="A11" s="15"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1325,13 +1345,13 @@
       <c r="A12" s="15"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1343,13 +1363,13 @@
       <c r="A13" s="15"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1362,10 +1382,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1376,24 +1396,26 @@
     <row r="15" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1401,7 +1423,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -1411,32 +1433,32 @@
     </row>
     <row r="18" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1447,8 +1469,8 @@
     <mergeCell ref="B16:G16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="D6:D7 B4:B15 C6:C8 E4:L15 C5:D5 C4 C9:D15">
-    <cfRule type="expression" dxfId="0" priority="10">
+  <conditionalFormatting sqref="D6:D7 B4:B15 C6:C8 C5:D5 C4 C9:D15 E4:L15">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>"If(blnBinNo=""True"")"</formula>
     </cfRule>
   </conditionalFormatting>
